--- a/sources/1.xlsx
+++ b/sources/1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThetNaungHset\Desktop\Kotoba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThetNaungHset\Desktop\Kotoba\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -25,24 +25,26 @@
     <sheet name="Data11" sheetId="32" r:id="rId11"/>
     <sheet name="Data12" sheetId="31" r:id="rId12"/>
     <sheet name="Data13" sheetId="30" r:id="rId13"/>
-    <sheet name="Verb" sheetId="9" r:id="rId14"/>
-    <sheet name="Bonpoe1" sheetId="10" r:id="rId15"/>
-    <sheet name="Bonpoe2" sheetId="14" r:id="rId16"/>
-    <sheet name="Bonpoe3" sheetId="15" r:id="rId17"/>
-    <sheet name="Bonpoe4" sheetId="16" r:id="rId18"/>
-    <sheet name="Bonpoe5" sheetId="17" r:id="rId19"/>
-    <sheet name="Bonpoe6" sheetId="19" r:id="rId20"/>
-    <sheet name="Bonpoe7" sheetId="18" r:id="rId21"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId22"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId23"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId24"/>
-    <sheet name="youon" sheetId="24" r:id="rId25"/>
-    <sheet name="katakana" sheetId="21" r:id="rId26"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId27"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId28"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId29"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId30"/>
-    <sheet name="Q" sheetId="11" r:id="rId31"/>
+    <sheet name="Data14" sheetId="34" r:id="rId14"/>
+    <sheet name="Data15" sheetId="33" r:id="rId15"/>
+    <sheet name="Verb" sheetId="9" r:id="rId16"/>
+    <sheet name="Bonpoe1" sheetId="10" r:id="rId17"/>
+    <sheet name="Bonpoe2" sheetId="14" r:id="rId18"/>
+    <sheet name="Bonpoe3" sheetId="15" r:id="rId19"/>
+    <sheet name="Bonpoe4" sheetId="16" r:id="rId20"/>
+    <sheet name="Bonpoe5" sheetId="17" r:id="rId21"/>
+    <sheet name="Bonpoe6" sheetId="19" r:id="rId22"/>
+    <sheet name="Bonpoe7" sheetId="18" r:id="rId23"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId24"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId25"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId26"/>
+    <sheet name="youon" sheetId="24" r:id="rId27"/>
+    <sheet name="katakana" sheetId="21" r:id="rId28"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId29"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId30"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId31"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId32"/>
+    <sheet name="Q" sheetId="11" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1769">
   <si>
     <t>わたし</t>
   </si>
@@ -5172,6 +5174,414 @@
   </si>
   <si>
     <t>ရုပ်သံလိုင်း အမည်</t>
+  </si>
+  <si>
+    <t>つけます　II</t>
+  </si>
+  <si>
+    <t>ဖွင့်သည် (မီး၊ အဲယားကွန်း စသည်)</t>
+  </si>
+  <si>
+    <t>けします　I</t>
+  </si>
+  <si>
+    <t>ပိတ်သည် (မီး၊ အဲယားကွန်း စသည်)</t>
+  </si>
+  <si>
+    <t>あけます　II</t>
+  </si>
+  <si>
+    <t>ဖွင့်သည် (တံခါး၊ ပြတင်းပေါက် စသည်)</t>
+  </si>
+  <si>
+    <t>しめます　II</t>
+  </si>
+  <si>
+    <t>ပိတ်သည် (တံခါး၊ ပြတင်းပေါက် စသည်)</t>
+  </si>
+  <si>
+    <t>いそぎます　I</t>
+  </si>
+  <si>
+    <t>လောသည်၊ အလျင်စလို လုပ်သည်</t>
+  </si>
+  <si>
+    <t>まちます　I</t>
+  </si>
+  <si>
+    <t>စောင့်သည်</t>
+  </si>
+  <si>
+    <t>もちます　I</t>
+  </si>
+  <si>
+    <t>ပိုင်ဆိုင်သည်၊ ကိုင်ထားသည်၊ သယ်သည်</t>
+  </si>
+  <si>
+    <t>とります　I</t>
+  </si>
+  <si>
+    <t>ယူသည်</t>
+  </si>
+  <si>
+    <t>てつだいます　I</t>
+  </si>
+  <si>
+    <t>ကူညီသည်</t>
+  </si>
+  <si>
+    <t>よびます　I</t>
+  </si>
+  <si>
+    <t>ခေါ်သည်</t>
+  </si>
+  <si>
+    <t>はなします　I</t>
+  </si>
+  <si>
+    <t>စကားပြောသည်</t>
+  </si>
+  <si>
+    <t>つかいます　I</t>
+  </si>
+  <si>
+    <t>သုံးသည်၊ အသုံးပြုသည်</t>
+  </si>
+  <si>
+    <t>とめます　II</t>
+  </si>
+  <si>
+    <t>တားသည်၊ တိပ်ဖြင့် ပိတ်သည်</t>
+  </si>
+  <si>
+    <t>みせます　II</t>
+  </si>
+  <si>
+    <t>ပြသည်</t>
+  </si>
+  <si>
+    <t>おしえます　II「じゅうしょを～」</t>
+  </si>
+  <si>
+    <t>ပြောပြသည် [လိပ်စာကို ~]</t>
+  </si>
+  <si>
+    <t>すわります　I</t>
+  </si>
+  <si>
+    <t>ထိုင်သည်</t>
+  </si>
+  <si>
+    <t>たちます　I</t>
+  </si>
+  <si>
+    <t>မတ်တပ်ရပ်သည်</t>
+  </si>
+  <si>
+    <t>はいります I「きっさてんに～」</t>
+  </si>
+  <si>
+    <t>ဝင်သည် [ကော်ဖီဆိုင်သို့ ~]</t>
+  </si>
+  <si>
+    <t>でます　III「きっさてんを～」</t>
+  </si>
+  <si>
+    <t>ထွက်သည် [ကော်ဖီဆိုင်မှ ~]</t>
+  </si>
+  <si>
+    <t>ふります　I「あめが～」</t>
+  </si>
+  <si>
+    <t>ရွာသည် [မိုး ~]</t>
+  </si>
+  <si>
+    <t>コビーします　III</t>
+  </si>
+  <si>
+    <t>မိတ္တူကူးသည်၊ ကော်ပီကူးသည်</t>
+  </si>
+  <si>
+    <t>でんき</t>
+  </si>
+  <si>
+    <t>လျှပ်စစ်၊ မီး</t>
+  </si>
+  <si>
+    <t>エアコン</t>
+  </si>
+  <si>
+    <t>အဲယားကွန်း၊ လေအေးစက်</t>
+  </si>
+  <si>
+    <t>パスポート</t>
+  </si>
+  <si>
+    <t>ပတ်စပို့၊ နိုင်ငံကူး လက်မှတ်</t>
+  </si>
+  <si>
+    <t>なまえ</t>
+  </si>
+  <si>
+    <t>နာမည်</t>
+  </si>
+  <si>
+    <t>じゅうしょ</t>
+  </si>
+  <si>
+    <t>လိပ်စာ</t>
+  </si>
+  <si>
+    <t>ちず</t>
+  </si>
+  <si>
+    <t>မြေပုံ</t>
+  </si>
+  <si>
+    <t>しお</t>
+  </si>
+  <si>
+    <t>ဆား</t>
+  </si>
+  <si>
+    <t>さとう</t>
+  </si>
+  <si>
+    <t>သကြား</t>
+  </si>
+  <si>
+    <t>もんだい</t>
+  </si>
+  <si>
+    <t>မေးခွန်း၊ ပုစ္ဆာ၊ အခက်အခဲ၊ ပြသာနာ</t>
+  </si>
+  <si>
+    <t>こたえ</t>
+  </si>
+  <si>
+    <t>အဖြေ</t>
+  </si>
+  <si>
+    <t>よみかた</t>
+  </si>
+  <si>
+    <t>ဖတ်ပုံဖတ်နည်း</t>
+  </si>
+  <si>
+    <t>～かた</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ နည်း၊ ~ နည်းလမ်း</t>
+  </si>
+  <si>
+    <t>まっすぐ</t>
+  </si>
+  <si>
+    <t>တည့်တည့်၊ ဖြောင့်ဖြောင့်</t>
+  </si>
+  <si>
+    <t>ゆっくり</t>
+  </si>
+  <si>
+    <t>ဖြည်းဖြည်း</t>
+  </si>
+  <si>
+    <t>すぐ</t>
+  </si>
+  <si>
+    <t>ချက်ချင်း</t>
+  </si>
+  <si>
+    <t>また</t>
+  </si>
+  <si>
+    <t>နောက်ထပ်</t>
+  </si>
+  <si>
+    <t>あとで</t>
+  </si>
+  <si>
+    <t>နောက်မှ၊ တော်ကြာမှ</t>
+  </si>
+  <si>
+    <t>もうすこし</t>
+  </si>
+  <si>
+    <t>နောက်ထပ်နည်းနည်း</t>
+  </si>
+  <si>
+    <t>နောက်ထပ် ~</t>
+  </si>
+  <si>
+    <t>さあ</t>
+  </si>
+  <si>
+    <t>あれ？</t>
+  </si>
+  <si>
+    <t>しんごうをみぎへまがってください</t>
+  </si>
+  <si>
+    <t>မီးပွိုင့်ရဲ့  ညာဘက်ကို ကွေ့ပါ</t>
+  </si>
+  <si>
+    <t>これで　おねがいします</t>
+  </si>
+  <si>
+    <t>ဒါနဲ့ ရှင်းပါမယ်</t>
+  </si>
+  <si>
+    <t>おつり</t>
+  </si>
+  <si>
+    <t>ပြန်အမ်းငွေ၊ အကြွေ</t>
+  </si>
+  <si>
+    <t>みどりちょう</t>
+  </si>
+  <si>
+    <t>မြို့အမည်</t>
+  </si>
+  <si>
+    <t>おきます　I</t>
+  </si>
+  <si>
+    <t>ထားသည်</t>
+  </si>
+  <si>
+    <t>つくります　I</t>
+  </si>
+  <si>
+    <t>ပြုလုပ်သည်၊ တည်ဆောက်သည်</t>
+  </si>
+  <si>
+    <t>うります　I</t>
+  </si>
+  <si>
+    <t>ရောင်းသည်</t>
+  </si>
+  <si>
+    <t>しります　I</t>
+  </si>
+  <si>
+    <t>သိသည်</t>
+  </si>
+  <si>
+    <t>すみます　I</t>
+  </si>
+  <si>
+    <t>နေထိုင်သည်</t>
+  </si>
+  <si>
+    <t>けんきゅうします　III</t>
+  </si>
+  <si>
+    <t>သုတေသန ပြုသည်</t>
+  </si>
+  <si>
+    <t>しりょう</t>
+  </si>
+  <si>
+    <t>အချက်အလက်၊ စာရွက်စာတမ်း</t>
+  </si>
+  <si>
+    <t>カタログ</t>
+  </si>
+  <si>
+    <t>ကတ်တလောက်</t>
+  </si>
+  <si>
+    <t>じこくひょう</t>
+  </si>
+  <si>
+    <t>အချိန်ဇယား</t>
+  </si>
+  <si>
+    <t>ふく</t>
+  </si>
+  <si>
+    <t>အဝတ်အစား</t>
+  </si>
+  <si>
+    <t>せいひん</t>
+  </si>
+  <si>
+    <t>ထုတ်ကုန် ပစ္စည်း</t>
+  </si>
+  <si>
+    <t>ソフト</t>
+  </si>
+  <si>
+    <t>ကွန်ပျူတာ ဆော့ဝဲလ်</t>
+  </si>
+  <si>
+    <t>でんしじしょ</t>
+  </si>
+  <si>
+    <t>လျှပ်စစ် အဘိဓာန်</t>
+  </si>
+  <si>
+    <t>けいざい</t>
+  </si>
+  <si>
+    <t>စီးပွားရေး</t>
+  </si>
+  <si>
+    <t>しゃくしょ</t>
+  </si>
+  <si>
+    <t>မြို့နယ်ရုံး</t>
+  </si>
+  <si>
+    <t>こうこう</t>
+  </si>
+  <si>
+    <t>အထက်တန်းကျောင်း</t>
+  </si>
+  <si>
+    <t>はいしゃ</t>
+  </si>
+  <si>
+    <t>သွား ဆရာဝန်</t>
+  </si>
+  <si>
+    <t>どくしん</t>
+  </si>
+  <si>
+    <t>လူလွတ်၊ လူပျို၊ အပျို</t>
+  </si>
+  <si>
+    <t>တောင်းပန်ပါတယ်</t>
+  </si>
+  <si>
+    <t>みなさん</t>
+  </si>
+  <si>
+    <t>ပရိတ်သတ်အပေါင်းတို့၊ အားလုံး</t>
+  </si>
+  <si>
+    <t>おもいだします　I</t>
+  </si>
+  <si>
+    <t>သတိရသည်</t>
+  </si>
+  <si>
+    <t>いらっしゃいます　I</t>
+  </si>
+  <si>
+    <t>ရှိသည်</t>
+  </si>
+  <si>
+    <t>にっほんばし</t>
+  </si>
+  <si>
+    <t>နီဟွန်းဘရှိ</t>
+  </si>
+  <si>
+    <t>みんなの　インタビュー</t>
+  </si>
+  <si>
+    <t>ရုပ်သံလိုင်းအမည်</t>
   </si>
 </sst>
 </file>
@@ -6748,7 +7158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8060,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8449,6 +8859,832 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41"/>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -8796,7 +10032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -9012,7 +10248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -9126,7 +10362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -9212,219 +10448,6 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="111.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>906</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="77.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>910</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9966,6 +10989,219 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A34"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="111.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
@@ -10033,7 +11269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
@@ -10122,7 +11358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -10328,7 +11564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10431,7 +11667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -10483,7 +11719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -10633,7 +11869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -10855,7 +12091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10951,208 +12187,6 @@
       </c>
       <c r="E5" s="37" t="s">
         <v>1107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1111</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -11735,6 +12769,208 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11901,7 +13137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>

--- a/sources/1.xlsx
+++ b/sources/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="12" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -35,16 +35,17 @@
     <sheet name="Bonpoe5" sheetId="17" r:id="rId21"/>
     <sheet name="Bonpoe6" sheetId="19" r:id="rId22"/>
     <sheet name="Bonpoe7" sheetId="18" r:id="rId23"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId24"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId25"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId26"/>
-    <sheet name="youon" sheetId="24" r:id="rId27"/>
-    <sheet name="katakana" sheetId="21" r:id="rId28"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId29"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId30"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId31"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId32"/>
-    <sheet name="Q" sheetId="11" r:id="rId33"/>
+    <sheet name="Bonpoe8" sheetId="35" r:id="rId24"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId25"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId26"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId27"/>
+    <sheet name="youon" sheetId="24" r:id="rId28"/>
+    <sheet name="katakana" sheetId="21" r:id="rId29"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId30"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId31"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId32"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId33"/>
+    <sheet name="Q" sheetId="11" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1794">
   <si>
     <t>わたし</t>
   </si>
@@ -5582,6 +5583,81 @@
   </si>
   <si>
     <t>ရုပ်သံလိုင်းအမည်</t>
+  </si>
+  <si>
+    <t>**い: けいようし ကို Ｖ ပြောင်းလဲခြင်းပုံစံ**</t>
+  </si>
+  <si>
+    <t>#### Adj ကို けいようし လို့ခေါ်သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **い**　ဖြုတ် **かった**　=　--- ခဲ့သော　　　　&lt;=&gt;　**かったです**　=　---- ခဲ့သည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **い**　ဖြုတ် **くない**　=　မ ----- သော 　　　&lt;=&gt;　**くないです**　=　မ----ဘူး</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **い**　=　သော　　　　　　　　　　　　&lt;=&gt;　**いです**　=　သည်|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **い**　ဖြုတ် **くなかった**　=　မ----- ခဲ့သော　&lt;=&gt;　**くなかったです**　=　မ----ခဲ့ဘူး</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ချွင်းချက်　-　**いい**　မြင်ရင်　**よい**　နဲ့ သုံးပေးရပါမည်</t>
+  </si>
+  <si>
+    <t>**な : けいようし ကို Ｖ ပြောင်းလဲခြင်းပုံစံ**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **な**　=　သော　&lt;=&gt;　**な** ဖြုတ်**です**ပေါင်း</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **な**　ဖြုတ်　**ではありません、じゃありません**　=　မ----သော</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **な**　ဖြုတ်　**でした**　=　-----ခဲ့သော</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - **な**　ဖြုတ်　**ではありませんでした、じゃありませんでした**　=　မ----ခဲ့သော</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Ｎ က/သည် adj ဖြစ်ပါသည်</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ဘယ်လို Ｎ အမျိုးအစားလဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ဘယ်လိုမျိုးလဲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - သိပ်ပြီးတော့ (အနောက်မှာ Negative လိုက်ပါတယ်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - အလွန်၊ အရမ်း (အနောက်မှာ Positive လိုက်ပါတယ်)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. **どうですか**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. **どんな N ですか**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. **あまり**</t>
+  </si>
+  <si>
+    <t>5. **とても**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. **Ｎ は adj です**</t>
+  </si>
+  <si>
+    <t>6. **Ｎ は adj Ｎ です**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Adj ဖြုတ်စရာမလိုပါ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - **い: けいようし**　နဲ့　**な : けいようし**　ဆိုပြီးနှစ်မျိုးရှိတယ်</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5873,6 +5949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9396,7 +9475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -10036,7 +10115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -10252,7 +10331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -10991,7 +11070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11273,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -11359,6 +11438,155 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.21875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -11564,7 +11792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11667,7 +11895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -11719,7 +11947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -11869,7 +12097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -12084,109 +12312,6 @@
       </c>
       <c r="E12" s="38" t="s">
         <v>1016</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -12769,6 +12894,109 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="340" zoomScaleNormal="340" workbookViewId="0">
@@ -12819,7 +13047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -12969,7 +13197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -13137,7 +13365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>

--- a/sources/1.xlsx
+++ b/sources/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="12" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="15" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -36,16 +36,17 @@
     <sheet name="Bonpoe6" sheetId="19" r:id="rId22"/>
     <sheet name="Bonpoe7" sheetId="18" r:id="rId23"/>
     <sheet name="Bonpoe8" sheetId="35" r:id="rId24"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId25"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId26"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId27"/>
-    <sheet name="youon" sheetId="24" r:id="rId28"/>
-    <sheet name="katakana" sheetId="21" r:id="rId29"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId30"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId31"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId32"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId33"/>
-    <sheet name="Q" sheetId="11" r:id="rId34"/>
+    <sheet name="Kanji" sheetId="36" r:id="rId25"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId26"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId27"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId28"/>
+    <sheet name="youon" sheetId="24" r:id="rId29"/>
+    <sheet name="katakana" sheetId="21" r:id="rId30"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId31"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId32"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId33"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId34"/>
+    <sheet name="Q" sheetId="11" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1906">
   <si>
     <t>わたし</t>
   </si>
@@ -5659,12 +5660,348 @@
   <si>
     <t xml:space="preserve">  - **い: けいようし**　နဲ့　**な : けいようし**　ဆိုပြီးနှစ်မျိုးရှိတယ်</t>
   </si>
+  <si>
+    <t>Kanji</t>
+  </si>
+  <si>
+    <t>Hiragana</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>いち</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>さん</t>
+  </si>
+  <si>
+    <t>よん</t>
+  </si>
+  <si>
+    <t>ろく</t>
+  </si>
+  <si>
+    <t>なな</t>
+  </si>
+  <si>
+    <t>はち</t>
+  </si>
+  <si>
+    <t>きゅう</t>
+  </si>
+  <si>
+    <t>じゅう</t>
+  </si>
+  <si>
+    <t>つき</t>
+  </si>
+  <si>
+    <t>つち</t>
+  </si>
+  <si>
+    <t>တစ်</t>
+  </si>
+  <si>
+    <t>သုံး</t>
+  </si>
+  <si>
+    <t>လေး</t>
+  </si>
+  <si>
+    <t>ခြောက်</t>
+  </si>
+  <si>
+    <t>ခုနှစ်</t>
+  </si>
+  <si>
+    <t>ရှစ်</t>
+  </si>
+  <si>
+    <t>ကိုး</t>
+  </si>
+  <si>
+    <t>တစ်ဆယ်</t>
+  </si>
+  <si>
+    <t>နေ</t>
+  </si>
+  <si>
+    <t>လ</t>
+  </si>
+  <si>
+    <t>မီး</t>
+  </si>
+  <si>
+    <t>ရေ</t>
+  </si>
+  <si>
+    <t>သစ်ပင်</t>
+  </si>
+  <si>
+    <t>ပိုက်ဆံ</t>
+  </si>
+  <si>
+    <t>မြေကြီး</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>林</t>
+  </si>
+  <si>
+    <t>森</t>
+  </si>
+  <si>
+    <t>口</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>千</t>
+  </si>
+  <si>
+    <t>万</t>
+  </si>
+  <si>
+    <t>白い</t>
+  </si>
+  <si>
+    <t>曜</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>田</t>
+  </si>
+  <si>
+    <t>百万円</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>年金</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>今月</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>ふじ山</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>山田</t>
+  </si>
+  <si>
+    <t>円</t>
+  </si>
+  <si>
+    <t>はやし</t>
+  </si>
+  <si>
+    <t>もり</t>
+  </si>
+  <si>
+    <t>くち</t>
+  </si>
+  <si>
+    <t>よう</t>
+  </si>
+  <si>
+    <t>やま、さん</t>
+  </si>
+  <si>
+    <t>やまだ</t>
+  </si>
+  <si>
+    <t>えん</t>
+  </si>
+  <si>
+    <t>ひゃくまんえん</t>
+  </si>
+  <si>
+    <t>ねん</t>
+  </si>
+  <si>
+    <t>ねんきん</t>
+  </si>
+  <si>
+    <t>သစ်တော</t>
+  </si>
+  <si>
+    <t>တောအုပ်</t>
+  </si>
+  <si>
+    <t>ပါးစပ်</t>
+  </si>
+  <si>
+    <t>မျက်လုံး</t>
+  </si>
+  <si>
+    <t>ဖြူသော</t>
+  </si>
+  <si>
+    <t>နေ့နံ</t>
+  </si>
+  <si>
+    <t>တောင်</t>
+  </si>
+  <si>
+    <t>မြစ်</t>
+  </si>
+  <si>
+    <t>လယ်ကွင်း</t>
+  </si>
+  <si>
+    <t>Yamada (လူနာမည်)</t>
+  </si>
+  <si>
+    <t>ယန်း</t>
+  </si>
+  <si>
+    <t>ယန်းသောင်းတစ်ရာ</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>ပင်စင်</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>This Month</t>
+  </si>
+  <si>
+    <t>This Year</t>
+  </si>
+  <si>
+    <t>အတွင်း</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5776,6 +6113,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5826,7 +6170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5952,6 +6296,22 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8941,8 +9301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11441,7 +11801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -11587,6 +11947,740 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>956</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>961</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>961</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>942</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>18</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>19</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>20</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
+        <v>21</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>22</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="44">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="44">
+        <v>24</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="44">
+        <v>25</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="44">
+        <v>26</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="44">
+        <v>27</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="44">
+        <v>28</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="44">
+        <v>29</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>970</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44">
+        <v>30</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D31" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="44">
+        <v>31</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D32" s="49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="44">
+        <v>32</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D33" s="49">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="44">
+        <v>33</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
+        <v>34</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="44">
+        <v>35</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="44">
+        <v>36</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>834</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="44">
+        <v>37</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="44">
+        <v>38</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>951</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="44">
+        <v>39</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="44">
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="44">
+        <v>41</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="44">
+        <v>42</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="44">
+        <v>44</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="44">
+        <v>45</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="44">
+        <v>46</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44">
+        <v>47</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="44">
+        <v>48</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="44">
+        <v>49</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="44">
+        <v>50</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -11792,7 +12886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -11895,7 +12989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -11947,7 +13041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -12090,228 +13184,6 @@
       </c>
       <c r="C12" s="37" t="s">
         <v>1087</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>980</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>981</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>982</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>983</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>985</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>986</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>987</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>988</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>990</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>992</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>995</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>996</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>997</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>998</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -12894,6 +13766,228 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>980</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>982</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>983</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>985</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>986</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>987</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>988</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>990</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>991</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>992</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>993</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>996</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>997</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>998</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
@@ -12995,7 +14089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -13047,7 +14141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -13197,7 +14291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -13365,7 +14459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -14931,7 +16025,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>

--- a/sources/1.xlsx
+++ b/sources/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="15" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="15" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -37,16 +37,18 @@
     <sheet name="Bonpoe7" sheetId="18" r:id="rId23"/>
     <sheet name="Bonpoe8" sheetId="35" r:id="rId24"/>
     <sheet name="Kanji" sheetId="36" r:id="rId25"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId26"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId27"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId28"/>
-    <sheet name="youon" sheetId="24" r:id="rId29"/>
-    <sheet name="katakana" sheetId="21" r:id="rId30"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId31"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId32"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId33"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId34"/>
-    <sheet name="Q" sheetId="11" r:id="rId35"/>
+    <sheet name="Kanji2" sheetId="37" r:id="rId26"/>
+    <sheet name="Kanji3" sheetId="38" r:id="rId27"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId28"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId29"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId30"/>
+    <sheet name="youon" sheetId="24" r:id="rId31"/>
+    <sheet name="katakana" sheetId="21" r:id="rId32"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId33"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId34"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId35"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId36"/>
+    <sheet name="Q" sheetId="11" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="2140">
   <si>
     <t>わたし</t>
   </si>
@@ -5995,6 +5997,708 @@
   </si>
   <si>
     <t>အတွင်း</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>いちにちじゅう</t>
+  </si>
+  <si>
+    <t>一日中</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>はんとし</t>
+  </si>
+  <si>
+    <t>半年</t>
+  </si>
+  <si>
+    <t>はんにち</t>
+  </si>
+  <si>
+    <t>半日</t>
+  </si>
+  <si>
+    <t>かたな</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>わかる</t>
+  </si>
+  <si>
+    <t>分かる</t>
+  </si>
+  <si>
+    <t>十分な</t>
+  </si>
+  <si>
+    <t>じゅうぶんな</t>
+  </si>
+  <si>
+    <t>ぶん</t>
+  </si>
+  <si>
+    <t>分</t>
+  </si>
+  <si>
+    <t>おてら</t>
+  </si>
+  <si>
+    <t>お寺</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>さむらい</t>
+  </si>
+  <si>
+    <t>侍</t>
+  </si>
+  <si>
+    <t>もつ</t>
+  </si>
+  <si>
+    <t>持つ</t>
+  </si>
+  <si>
+    <t>まつ</t>
+  </si>
+  <si>
+    <t>待つ</t>
+  </si>
+  <si>
+    <t>じょうげ</t>
+  </si>
+  <si>
+    <t>上下</t>
+  </si>
+  <si>
+    <t>あがる</t>
+  </si>
+  <si>
+    <t>上がる</t>
+  </si>
+  <si>
+    <t>さがる</t>
+  </si>
+  <si>
+    <t>下がる</t>
+  </si>
+  <si>
+    <t>တစ်နေ့လုံး</t>
+  </si>
+  <si>
+    <t>တစ်ဝက်</t>
+  </si>
+  <si>
+    <t>နှစ်ဝက်</t>
+  </si>
+  <si>
+    <t>နေ့တစ်ဝက်</t>
+  </si>
+  <si>
+    <t>နားလည်သဘောက်ပေါက်သည်</t>
+  </si>
+  <si>
+    <t>လုံလောက်သော</t>
+  </si>
+  <si>
+    <t>မိနစ်</t>
+  </si>
+  <si>
+    <t>ဘုရားကျောင်း</t>
+  </si>
+  <si>
+    <t>အချိန်</t>
+  </si>
+  <si>
+    <t>ဆာမူရိုင်း</t>
+  </si>
+  <si>
+    <t>ပိုင်ဆိုင်/သယ်ဆောင်</t>
+  </si>
+  <si>
+    <t>အပေါ်အောက်</t>
+  </si>
+  <si>
+    <t>တက်သည်</t>
+  </si>
+  <si>
+    <t>ကျသည်</t>
+  </si>
+  <si>
+    <t>一人</t>
+  </si>
+  <si>
+    <t>二人</t>
+  </si>
+  <si>
+    <t>ミャンマーじん</t>
+  </si>
+  <si>
+    <t>ミャンマー人</t>
+  </si>
+  <si>
+    <t>子</t>
+  </si>
+  <si>
+    <t>子ども</t>
+  </si>
+  <si>
+    <t>おんな</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>おんなのひと</t>
+  </si>
+  <si>
+    <t>女の人</t>
+  </si>
+  <si>
+    <t>ちから</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>おとこ</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>にほん</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>にほんじん</t>
+  </si>
+  <si>
+    <t>日本人</t>
+  </si>
+  <si>
+    <t>からだ</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>やすむ</t>
+  </si>
+  <si>
+    <t>休む</t>
+  </si>
+  <si>
+    <t>みみ</t>
+  </si>
+  <si>
+    <t>耳</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>じょうず</t>
+  </si>
+  <si>
+    <t>上手</t>
+  </si>
+  <si>
+    <t>へた</t>
+  </si>
+  <si>
+    <t>下手</t>
+  </si>
+  <si>
+    <t>あし</t>
+  </si>
+  <si>
+    <t>足</t>
+  </si>
+  <si>
+    <t>たいりょく</t>
+  </si>
+  <si>
+    <t>体力</t>
+  </si>
+  <si>
+    <t>はいる</t>
+  </si>
+  <si>
+    <t>入る</t>
+  </si>
+  <si>
+    <t>တစ်ယောက်</t>
+  </si>
+  <si>
+    <t>နှစ်ယောက်</t>
+  </si>
+  <si>
+    <t>မြန်မာလူမျိုး</t>
+  </si>
+  <si>
+    <t>ကလေး</t>
+  </si>
+  <si>
+    <t>ခွန်းအား</t>
+  </si>
+  <si>
+    <t>ယောက်ျားလေး</t>
+  </si>
+  <si>
+    <t>ဂျပန်</t>
+  </si>
+  <si>
+    <t>ဂျပန်လူမျိုး</t>
+  </si>
+  <si>
+    <t>ခန္ဓာကိုယ်</t>
+  </si>
+  <si>
+    <t>အနားယူသည်</t>
+  </si>
+  <si>
+    <t>နား</t>
+  </si>
+  <si>
+    <t>ခြေထောက်</t>
+  </si>
+  <si>
+    <t>ကိုယ်ခံအား</t>
+  </si>
+  <si>
+    <t>ဝင်သည်</t>
+  </si>
+  <si>
+    <t>いりぐち</t>
+  </si>
+  <si>
+    <t>入口</t>
+  </si>
+  <si>
+    <t>じんこう</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>いちにちめ</t>
+  </si>
+  <si>
+    <t>一日目</t>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>お父さん</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>お母さん</t>
+  </si>
+  <si>
+    <t>ふぼ</t>
+  </si>
+  <si>
+    <t>父母</t>
+  </si>
+  <si>
+    <t>さき</t>
+  </si>
+  <si>
+    <t>先</t>
+  </si>
+  <si>
+    <t>せんじつ</t>
+  </si>
+  <si>
+    <t>先日</t>
+  </si>
+  <si>
+    <t>先月</t>
+  </si>
+  <si>
+    <t>うまれる</t>
+  </si>
+  <si>
+    <t>生まれる</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>ဝင်ပေါက်</t>
+  </si>
+  <si>
+    <t>လူဦးရေ</t>
+  </si>
+  <si>
+    <t>တစ်ရက်မြောက်</t>
+  </si>
+  <si>
+    <t>အဖေ</t>
+  </si>
+  <si>
+    <t>အမေ</t>
+  </si>
+  <si>
+    <t>အဖေနဲ့ အမေ</t>
+  </si>
+  <si>
+    <t>အရင်</t>
+  </si>
+  <si>
+    <t>ပြီးခဲ့တဲ့ ရက်က</t>
+  </si>
+  <si>
+    <t>ပြီးခဲ့တဲ့ လက</t>
+  </si>
+  <si>
+    <t>မွေးဖွားသည်</t>
+  </si>
+  <si>
+    <t>まなぶ</t>
+  </si>
+  <si>
+    <t>学ぶ</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>友だち</t>
+  </si>
+  <si>
+    <t>ゆうじん</t>
+  </si>
+  <si>
+    <t>友人</t>
+  </si>
+  <si>
+    <t>まい</t>
+  </si>
+  <si>
+    <t>毎</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>まいげつ</t>
+  </si>
+  <si>
+    <t>毎月</t>
+  </si>
+  <si>
+    <t>まいとし</t>
+  </si>
+  <si>
+    <t>毎年</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>ဆရာ</t>
+  </si>
+  <si>
+    <t>လေ့လာသည်</t>
+  </si>
+  <si>
+    <t>ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>မိတ်ဆွေ</t>
+  </si>
+  <si>
+    <t>လတိုင်း</t>
+  </si>
+  <si>
+    <t>နှစ်တိုင်း</t>
+  </si>
+  <si>
+    <t>かいがい</t>
+  </si>
+  <si>
+    <t>海外</t>
+  </si>
+  <si>
+    <t>何</t>
+  </si>
+  <si>
+    <t>何月</t>
+  </si>
+  <si>
+    <t>何時</t>
+  </si>
+  <si>
+    <t>なんにん</t>
+  </si>
+  <si>
+    <t>何人</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>うし</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>午</t>
+  </si>
+  <si>
+    <t>午前</t>
+  </si>
+  <si>
+    <t>午後</t>
+  </si>
+  <si>
+    <t>右</t>
+  </si>
+  <si>
+    <t>左</t>
+  </si>
+  <si>
+    <t>ひがし</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>にし</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>みなみ</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>きた</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>とうざいなんぼく</t>
+  </si>
+  <si>
+    <t>東西南北</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>ぜんご</t>
+  </si>
+  <si>
+    <t>前後</t>
+  </si>
+  <si>
+    <t>さゆう</t>
+  </si>
+  <si>
+    <t>左右</t>
+  </si>
+  <si>
+    <t>うま</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>နိုင်ငံခြား</t>
+  </si>
+  <si>
+    <t>ဘာလဲ</t>
+  </si>
+  <si>
+    <t>ဘယ်အချိန်</t>
+  </si>
+  <si>
+    <t>ဘယ်နှစ်ယောက်</t>
+  </si>
+  <si>
+    <t>အရှေ့</t>
+  </si>
+  <si>
+    <t>အနောက်</t>
+  </si>
+  <si>
+    <t>နွား</t>
+  </si>
+  <si>
+    <t>မနက်ပိုင်း</t>
+  </si>
+  <si>
+    <t>ညနေပိုင်း</t>
+  </si>
+  <si>
+    <t>ညာဘက်</t>
+  </si>
+  <si>
+    <t>ဘယ်ဘက်</t>
+  </si>
+  <si>
+    <t>မြောက်</t>
+  </si>
+  <si>
+    <t>အရှေ့အနောက်တောင်မြောက်</t>
+  </si>
+  <si>
+    <t>အရှေ့အနောက်</t>
+  </si>
+  <si>
+    <t>ဘယ်ညာ</t>
+  </si>
+  <si>
+    <t>မြင်း</t>
+  </si>
+  <si>
+    <t>魚</t>
+  </si>
+  <si>
+    <t>みる</t>
+  </si>
+  <si>
+    <t>かい</t>
+  </si>
+  <si>
+    <t>貝</t>
+  </si>
+  <si>
+    <t>見る</t>
+  </si>
+  <si>
+    <t>かう</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>てん</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>ふとい</t>
+  </si>
+  <si>
+    <t>太い</t>
+  </si>
+  <si>
+    <t>天気</t>
+  </si>
+  <si>
+    <t>きもち</t>
+  </si>
+  <si>
+    <t>気持ち</t>
+  </si>
+  <si>
+    <t>にんきがある</t>
+  </si>
+  <si>
+    <t>人気がある</t>
+  </si>
+  <si>
+    <t>車</t>
+  </si>
+  <si>
+    <t>もん</t>
+  </si>
+  <si>
+    <t>門</t>
+  </si>
+  <si>
+    <t>間</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>おおあめ</t>
+  </si>
+  <si>
+    <t>大雨</t>
+  </si>
+  <si>
+    <t>ကြည့်သည်</t>
+  </si>
+  <si>
+    <t>ခရု</t>
+  </si>
+  <si>
+    <t>မိုး</t>
+  </si>
+  <si>
+    <t>မိုးကောင်းကင်</t>
+  </si>
+  <si>
+    <t>ကြီးသော</t>
+  </si>
+  <si>
+    <t>ဝသော</t>
+  </si>
+  <si>
+    <t>ရာသီဥတု</t>
+  </si>
+  <si>
+    <t>စိတ်ခံစားချက်</t>
+  </si>
+  <si>
+    <t>နာမည်ကြီးတယ်</t>
+  </si>
+  <si>
+    <t>ကား</t>
+  </si>
+  <si>
+    <t>ကြား</t>
+  </si>
+  <si>
+    <t>ကြာချိန်</t>
+  </si>
+  <si>
+    <t>မိုးကြီး</t>
   </si>
 </sst>
 </file>
@@ -11950,8 +12654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12681,6 +13385,1472 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A44" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>51</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44">
+        <v>52</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>53</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>54</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>55</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1913</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>56</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>57</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>58</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>1918</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>59</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>60</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>61</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>62</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>63</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>1928</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>64</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>65</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>66</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>67</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>1936</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>68</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>69</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>70</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
+        <v>71</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>945</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>72</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="44">
+        <v>73</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="44">
+        <v>74</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="44">
+        <v>75</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>1961</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="44">
+        <v>76</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="44">
+        <v>77</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="44">
+        <v>78</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="44">
+        <v>79</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44">
+        <v>80</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="44">
+        <v>81</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="44">
+        <v>82</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="44">
+        <v>83</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>621</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
+        <v>84</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="44">
+        <v>85</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="44">
+        <v>86</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="44">
+        <v>87</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="44">
+        <v>88</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="44">
+        <v>89</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="44">
+        <v>90</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="44">
+        <v>91</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="44">
+        <v>92</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="44">
+        <v>93</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>668</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="44">
+        <v>94</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>666</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="44">
+        <v>95</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>670</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="44">
+        <v>96</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44">
+        <v>97</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="44">
+        <v>98</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="44">
+        <v>99</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="44">
+        <v>100</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>101</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="44">
+        <v>102</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>103</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>104</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>105</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>106</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>107</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>108</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>109</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>110</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>2044</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="44">
+        <v>111</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="44">
+        <v>112</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>2053</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>113</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>2054</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>114</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>115</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>116</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>2058</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>117</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
+        <v>118</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>119</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>120</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
+        <v>121</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>122</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="44">
+        <v>123</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="44">
+        <v>124</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="44">
+        <v>125</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="44">
+        <v>126</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="44">
+        <v>127</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="44">
+        <v>128</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="44">
+        <v>129</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="44">
+        <v>130</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="44">
+        <v>131</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="44">
+        <v>132</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="44">
+        <v>133</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="44">
+        <v>134</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="44">
+        <v>135</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="44">
+        <v>136</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="44">
+        <v>137</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="44">
+        <v>138</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="44">
+        <v>139</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="44">
+        <v>140</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="44">
+        <v>141</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="44">
+        <v>142</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="44">
+        <v>143</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="44">
+        <v>144</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="44">
+        <v>145</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="44">
+        <v>146</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44">
+        <v>147</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="44">
+        <v>148</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="44">
+        <v>149</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="44">
+        <v>150</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -12886,7 +15056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -12982,208 +15152,6 @@
       </c>
       <c r="E5" s="37" t="s">
         <v>1051</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>1087</v>
       </c>
     </row>
   </sheetData>
@@ -13766,6 +15734,208 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
@@ -13986,7 +16156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -14089,7 +16259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -14141,7 +16311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -14291,7 +16461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -14459,7 +16629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -16025,7 +18195,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>

--- a/sources/1.xlsx
+++ b/sources/1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="15" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="668" firstSheet="17" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="5" r:id="rId1"/>
@@ -39,16 +39,18 @@
     <sheet name="Kanji" sheetId="36" r:id="rId25"/>
     <sheet name="Kanji2" sheetId="37" r:id="rId26"/>
     <sheet name="Kanji3" sheetId="38" r:id="rId27"/>
-    <sheet name="hiragana" sheetId="20" r:id="rId28"/>
-    <sheet name="dakuon" sheetId="22" r:id="rId29"/>
-    <sheet name="handakuon" sheetId="23" r:id="rId30"/>
-    <sheet name="youon" sheetId="24" r:id="rId31"/>
-    <sheet name="katakana" sheetId="21" r:id="rId32"/>
-    <sheet name="kdakuon" sheetId="25" r:id="rId33"/>
-    <sheet name="khandakuon" sheetId="26" r:id="rId34"/>
-    <sheet name="kyouon" sheetId="27" r:id="rId35"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId36"/>
-    <sheet name="Q" sheetId="11" r:id="rId37"/>
+    <sheet name="Kanji4" sheetId="39" r:id="rId28"/>
+    <sheet name="Kanji5" sheetId="40" r:id="rId29"/>
+    <sheet name="hiragana" sheetId="20" r:id="rId30"/>
+    <sheet name="dakuon" sheetId="22" r:id="rId31"/>
+    <sheet name="handakuon" sheetId="23" r:id="rId32"/>
+    <sheet name="youon" sheetId="24" r:id="rId33"/>
+    <sheet name="katakana" sheetId="21" r:id="rId34"/>
+    <sheet name="kdakuon" sheetId="25" r:id="rId35"/>
+    <sheet name="khandakuon" sheetId="26" r:id="rId36"/>
+    <sheet name="kyouon" sheetId="27" r:id="rId37"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId38"/>
+    <sheet name="Q" sheetId="11" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="2140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="2363">
   <si>
     <t>わたし</t>
   </si>
@@ -6699,6 +6701,675 @@
   </si>
   <si>
     <t>မိုးကြီး</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>小学校</t>
+  </si>
+  <si>
+    <t>စျေးကြီးသော</t>
+  </si>
+  <si>
+    <t>စျေးပေါသော</t>
+  </si>
+  <si>
+    <t>မူလတန်းကျောင်း</t>
+  </si>
+  <si>
+    <t>しょうがっこう</t>
+  </si>
+  <si>
+    <t>ちゅうがっこう</t>
+  </si>
+  <si>
+    <t>中学校</t>
+  </si>
+  <si>
+    <t>高校</t>
+  </si>
+  <si>
+    <t>しょうがくせい</t>
+  </si>
+  <si>
+    <t>小学生</t>
+  </si>
+  <si>
+    <t>ちゅうがくせい</t>
+  </si>
+  <si>
+    <t>中学生</t>
+  </si>
+  <si>
+    <t>こうこうせい</t>
+  </si>
+  <si>
+    <t>高校生</t>
+  </si>
+  <si>
+    <t>だいがくせい</t>
+  </si>
+  <si>
+    <t>大学生</t>
+  </si>
+  <si>
+    <t>たつ</t>
+  </si>
+  <si>
+    <t>立つ</t>
+  </si>
+  <si>
+    <t>ひたち</t>
+  </si>
+  <si>
+    <t>日立</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>きく</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>新聞</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>ながい</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>こうちょう</t>
+  </si>
+  <si>
+    <t>校長</t>
+  </si>
+  <si>
+    <t>おおい</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>すくない</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>少し</t>
+  </si>
+  <si>
+    <t>早い</t>
+  </si>
+  <si>
+    <t>早く</t>
+  </si>
+  <si>
+    <t>အလယ်တန်းကျောင်း</t>
+  </si>
+  <si>
+    <t>မူလတန်းကျောင်းသား</t>
+  </si>
+  <si>
+    <t>အလယ်တန်းကျောင်းသား</t>
+  </si>
+  <si>
+    <t>တက္ကသိုလ်ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>သစ်သော</t>
+  </si>
+  <si>
+    <t>နားထောင်သည်</t>
+  </si>
+  <si>
+    <t>ဟောင်းသော</t>
+  </si>
+  <si>
+    <t>ရှည်သော</t>
+  </si>
+  <si>
+    <t>ကျောင်းအုပ်</t>
+  </si>
+  <si>
+    <t>များသော</t>
+  </si>
+  <si>
+    <t>နည်းသော</t>
+  </si>
+  <si>
+    <t>နည်းနည်း</t>
+  </si>
+  <si>
+    <t>စောသော</t>
+  </si>
+  <si>
+    <t>မြန်မြန်/ စောသော</t>
+  </si>
+  <si>
+    <t>အထက်တန်းကျောင်းသား</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>いちねんせい</t>
+  </si>
+  <si>
+    <t>一年生</t>
+  </si>
+  <si>
+    <t>にねんせい</t>
+  </si>
+  <si>
+    <t>二年生</t>
+  </si>
+  <si>
+    <t>さんねんせい</t>
+  </si>
+  <si>
+    <t>三年生</t>
+  </si>
+  <si>
+    <t>よねんせい</t>
+  </si>
+  <si>
+    <t>四年生</t>
+  </si>
+  <si>
+    <t>いく</t>
+  </si>
+  <si>
+    <t>行く</t>
+  </si>
+  <si>
+    <t>こめ</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>くる</t>
+  </si>
+  <si>
+    <t>来る</t>
+  </si>
+  <si>
+    <t>来年</t>
+  </si>
+  <si>
+    <t>来月</t>
+  </si>
+  <si>
+    <t>よい</t>
+  </si>
+  <si>
+    <t>良い</t>
+  </si>
+  <si>
+    <t>ပထမနှစ်ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>ဒုတိယနှစ်ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>တတိယနှစ်ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>စတုတ္တနှစ်ကျောင်းသား</t>
+  </si>
+  <si>
+    <t>ဆန်စပါး</t>
+  </si>
+  <si>
+    <t>နောက်နှစ်</t>
+  </si>
+  <si>
+    <t>နောက်လ</t>
+  </si>
+  <si>
+    <t>たべる</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>がいしょく</t>
+  </si>
+  <si>
+    <t>外食</t>
+  </si>
+  <si>
+    <t>でる</t>
+  </si>
+  <si>
+    <t>出る</t>
+  </si>
+  <si>
+    <t>でぐち</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>かく</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>したがき</t>
+  </si>
+  <si>
+    <t>下書き</t>
+  </si>
+  <si>
+    <t>いう</t>
+  </si>
+  <si>
+    <t>言う</t>
+  </si>
+  <si>
+    <t>舌</t>
+  </si>
+  <si>
+    <t>အပြင်သို့ထွက်စားသည်</t>
+  </si>
+  <si>
+    <t>ထွက်သည်</t>
+  </si>
+  <si>
+    <t>ထွက်ပေါက်</t>
+  </si>
+  <si>
+    <t>အကြမ်းရေး/ draft</t>
+  </si>
+  <si>
+    <t>ပြောသည်</t>
+  </si>
+  <si>
+    <t>လျှာ</t>
+  </si>
+  <si>
+    <t>はなす</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>語</t>
+  </si>
+  <si>
+    <t>日本語</t>
+  </si>
+  <si>
+    <t>つぎ</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>のむ</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>にゅうがく</t>
+  </si>
+  <si>
+    <t>入学</t>
+  </si>
+  <si>
+    <t>うる</t>
+  </si>
+  <si>
+    <t>売る</t>
+  </si>
+  <si>
+    <t>よむ</t>
+  </si>
+  <si>
+    <t>読む</t>
+  </si>
+  <si>
+    <t>まわり</t>
+  </si>
+  <si>
+    <t>周り</t>
+  </si>
+  <si>
+    <t>しゅう</t>
+  </si>
+  <si>
+    <t>週</t>
+  </si>
+  <si>
+    <t>今週</t>
+  </si>
+  <si>
+    <t>先週</t>
+  </si>
+  <si>
+    <t>来週</t>
+  </si>
+  <si>
+    <t>いっしゅうかん</t>
+  </si>
+  <si>
+    <t>一週間</t>
+  </si>
+  <si>
+    <t>ဘာသာစကား</t>
+  </si>
+  <si>
+    <t>ဂျပန်ဘာသာစကား</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>ကျောင်းဝင်း</t>
+  </si>
+  <si>
+    <t>ဒီတစ်ပတ်</t>
+  </si>
+  <si>
+    <t>လာမည့်အပတ်</t>
+  </si>
+  <si>
+    <t>တစ်ပတ်တာ</t>
+  </si>
+  <si>
+    <t>ရက်သက် တစ်ပတ်</t>
+  </si>
+  <si>
+    <t>にちじ</t>
+  </si>
+  <si>
+    <t>日次</t>
+  </si>
+  <si>
+    <t>げつじ</t>
+  </si>
+  <si>
+    <t>月次</t>
+  </si>
+  <si>
+    <t>しゅうじ</t>
+  </si>
+  <si>
+    <t>週次</t>
+  </si>
+  <si>
+    <t>ねんじ</t>
+  </si>
+  <si>
+    <t>年次</t>
+  </si>
+  <si>
+    <t>くび</t>
+  </si>
+  <si>
+    <t>首</t>
+  </si>
+  <si>
+    <t>みち</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>ほっかいどう</t>
+  </si>
+  <si>
+    <t>北海道</t>
+  </si>
+  <si>
+    <t>どくしょ</t>
+  </si>
+  <si>
+    <t>読書</t>
+  </si>
+  <si>
+    <t>あう</t>
+  </si>
+  <si>
+    <t>会う</t>
+  </si>
+  <si>
+    <t>かいわ</t>
+  </si>
+  <si>
+    <t>会話</t>
+  </si>
+  <si>
+    <t>会社</t>
+  </si>
+  <si>
+    <t>しゃかい</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>しゃかいじん</t>
+  </si>
+  <si>
+    <t>社会人</t>
+  </si>
+  <si>
+    <t>いん</t>
+  </si>
+  <si>
+    <t>員</t>
+  </si>
+  <si>
+    <t>会社員</t>
+  </si>
+  <si>
+    <t>うらない</t>
+  </si>
+  <si>
+    <t>占い</t>
+  </si>
+  <si>
+    <t>店</t>
+  </si>
+  <si>
+    <t>てんいん</t>
+  </si>
+  <si>
+    <t>店員</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>えきいん</t>
+  </si>
+  <si>
+    <t>駅員</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>はなみ</t>
+  </si>
+  <si>
+    <t>花見</t>
+  </si>
+  <si>
+    <t>はなび</t>
+  </si>
+  <si>
+    <t>花火</t>
+  </si>
+  <si>
+    <t>လစဥ်</t>
+  </si>
+  <si>
+    <t>နေ့စဥ်</t>
+  </si>
+  <si>
+    <t>ပတ်စဥ်</t>
+  </si>
+  <si>
+    <t>နှစ်စဥ်</t>
+  </si>
+  <si>
+    <t>လည်းပင်း</t>
+  </si>
+  <si>
+    <t>လမ်း</t>
+  </si>
+  <si>
+    <t>ဟိုကိုင်းဒိုး</t>
+  </si>
+  <si>
+    <t>စာဖတ်ခြင်း</t>
+  </si>
+  <si>
+    <t>တွေ့ဆုံသည်</t>
+  </si>
+  <si>
+    <t>စကားပြော</t>
+  </si>
+  <si>
+    <t>လူ့ဘောင်အဖွဲ့အစည်း</t>
+  </si>
+  <si>
+    <t>လူကြီး</t>
+  </si>
+  <si>
+    <t>ဝန်ထမ်း</t>
+  </si>
+  <si>
+    <t>ဗေဒင်</t>
+  </si>
+  <si>
+    <t>ဆိုင်ဝန်ထမ်း</t>
+  </si>
+  <si>
+    <t>မီးရထားဝန်ထမ်း</t>
+  </si>
+  <si>
+    <t>မီးပန်း</t>
+  </si>
+  <si>
+    <t>はなきん</t>
+  </si>
+  <si>
+    <t>花金</t>
+  </si>
+  <si>
+    <t>おうさま</t>
+  </si>
+  <si>
+    <t>王さま</t>
+  </si>
+  <si>
+    <t>たま</t>
+  </si>
+  <si>
+    <t>玉</t>
+  </si>
+  <si>
+    <t>くに</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>外国</t>
+  </si>
+  <si>
+    <t>ちゅうごく</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>そら</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>から</t>
+  </si>
+  <si>
+    <t>からて</t>
+  </si>
+  <si>
+    <t>空手</t>
+  </si>
+  <si>
+    <t>電気</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>くうき</t>
+  </si>
+  <si>
+    <t>空気</t>
+  </si>
+  <si>
+    <t>TGIF</t>
+  </si>
+  <si>
+    <t>ဘုရင်ကြီး</t>
+  </si>
+  <si>
+    <t>ကျည်ဆံ</t>
+  </si>
+  <si>
+    <t>နိုင်ငံ</t>
+  </si>
+  <si>
+    <t>ကောင်းကင်</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>ကရာတေး</t>
+  </si>
+  <si>
+    <t>လျှပ်စစ်</t>
+  </si>
+  <si>
+    <t>လျှပ်စစ်ရထား</t>
+  </si>
+  <si>
+    <t>ဖုန်း</t>
+  </si>
+  <si>
+    <t>လေထု</t>
   </si>
 </sst>
 </file>
@@ -6874,7 +7545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7016,6 +7687,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14121,8 +14802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A47" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
+      <selection activeCell="A47" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14852,310 +15533,1469 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="38"/>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="47" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>151</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="50">
+        <v>152</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>153</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>764</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>154</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>155</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>156</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>157</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
         <v>158</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>937</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>938</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>939</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>941</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>942</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>943</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>944</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>946</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>947</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>948</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>949</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>951</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>952</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>953</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>955</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>956</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>957</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>958</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>960</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>961</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>962</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>963</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>965</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>968</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>969</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>970</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>966</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>967</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>973</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>979</v>
+      <c r="B9" s="45" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>159</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>160</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>161</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>162</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>163</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>164</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>165</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>166</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>167</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>168</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>169</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>170</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="50">
+        <v>171</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="50">
+        <v>172</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="50">
+        <v>173</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>174</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="50">
+        <v>175</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>176</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="50">
+        <v>177</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="50">
+        <v>178</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
+        <v>179</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
+        <v>180</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>181</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="50">
+        <v>182</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="50">
+        <v>183</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>2197</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="50">
+        <v>184</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="50">
+        <v>185</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="50">
+        <v>186</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>2203</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="50">
+        <v>187</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
+        <v>188</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="50">
+        <v>189</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>2209</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
+        <v>190</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="50">
+        <v>191</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>2211</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="50">
+        <v>192</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="50">
+        <v>193</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>2222</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="50">
+        <v>194</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>2224</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="50">
+        <v>195</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
+        <v>196</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="50">
+        <v>197</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="50">
+        <v>198</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="50">
+        <v>199</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="50">
+        <v>200</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>2241</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="6" style="46" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="48" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E2" s="37" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="50">
+        <v>201</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="50">
+        <v>202</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>1042</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1051</v>
+      <c r="C3" s="45" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="50">
+        <v>203</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>2245</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50">
+        <v>204</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="50">
+        <v>205</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50">
+        <v>206</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="50">
+        <v>207</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="50">
+        <v>208</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="50">
+        <v>209</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="50">
+        <v>210</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="50">
+        <v>211</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="50">
+        <v>212</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="50">
+        <v>213</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>214</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>2264</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>215</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>216</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>217</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>218</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>219</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>220</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="50">
+        <v>221</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>2285</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="50">
+        <v>222</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>2288</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="50">
+        <v>223</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="50">
+        <v>224</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>2292</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="50">
+        <v>225</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="50">
+        <v>226</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>2295</v>
+      </c>
+      <c r="D27" s="49" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="50">
+        <v>227</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="50">
+        <v>228</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>2299</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="50">
+        <v>229</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="50">
+        <v>230</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>2301</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="50">
+        <v>231</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="50">
+        <v>232</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="50">
+        <v>233</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="50">
+        <v>234</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>2307</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="50">
+        <v>235</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>650</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="50">
+        <v>236</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="50">
+        <v>237</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="50">
+        <v>238</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>2332</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="50">
+        <v>239</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="50">
+        <v>240</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="50">
+        <v>241</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="50">
+        <v>242</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="50">
+        <v>243</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="50">
+        <v>244</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="50">
+        <v>245</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>2343</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="50">
+        <v>246</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="50">
+        <v>247</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="50">
+        <v>248</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>2348</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="50">
+        <v>249</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>2349</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="50">
+        <v>250</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>2362</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15734,6 +17574,315 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>939</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>941</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>942</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>943</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>944</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>946</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>947</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>948</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>949</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>951</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>952</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>953</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>956</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>958</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>961</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>962</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>963</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>968</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>969</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>970</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>966</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>973</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>979</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>979</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>974</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>977</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
@@ -15784,7 +17933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -15934,7 +18083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -16156,7 +18305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -16259,7 +18408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -16311,7 +18460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -16461,7 +18610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A34"/>
   <sheetViews>
@@ -16629,7 +18778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
